--- a/Rival_scenario_prep.xlsx
+++ b/Rival_scenario_prep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoni\Desktop\Optimization in Modern Power Systems\Optimization_Code\optimization_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A10F0C-26FF-44E1-859E-322195708750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461D2F1F-B3AE-4DFE-96A8-47935F80567D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Capacity [MW]</t>
+    <t>Capacity</t>
   </si>
   <si>
-    <t>Cost [$/MWh]</t>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
@@ -82,7 +82,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -363,7 +363,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Rival_scenario_prep.xlsx
+++ b/Rival_scenario_prep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoni\Desktop\Optimization in Modern Power Systems\Optimization_Code\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A10F0C-26FF-44E1-859E-322195708750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BCE689-25E1-4659-9A41-CE6FD0819CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,7 +363,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -394,10 +394,10 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
         <v>400</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
       </c>
       <c r="E2">
         <v>600</v>
@@ -411,10 +411,10 @@
         <v>0</v>
       </c>
       <c r="C3">
+        <v>25.3</v>
+      </c>
+      <c r="D3">
         <v>20.8</v>
-      </c>
-      <c r="D3">
-        <v>25.3</v>
       </c>
       <c r="E3">
         <v>17.7</v>

--- a/Rival_scenario_prep.xlsx
+++ b/Rival_scenario_prep.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leoni\Desktop\Optimization in Modern Power Systems\Optimization_Code\optimization_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Opti in modern power systems\code\optimization_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BCE689-25E1-4659-9A41-CE6FD0819CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461D2F1F-B3AE-4DFE-96A8-47935F80567D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Capacity [MW]</t>
+    <t>Capacity</t>
   </si>
   <si>
-    <t>Cost [$/MWh]</t>
+    <t>Cost</t>
   </si>
 </sst>
 </file>
@@ -82,7 +82,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -363,7 +363,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -394,10 +394,10 @@
         <v>0</v>
       </c>
       <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
         <v>200</v>
-      </c>
-      <c r="D2">
-        <v>400</v>
       </c>
       <c r="E2">
         <v>600</v>
@@ -411,10 +411,10 @@
         <v>0</v>
       </c>
       <c r="C3">
+        <v>20.8</v>
+      </c>
+      <c r="D3">
         <v>25.3</v>
-      </c>
-      <c r="D3">
-        <v>20.8</v>
       </c>
       <c r="E3">
         <v>17.7</v>
